--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Month</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>30k</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>40K</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:D9"/>
+  <dimension ref="C6:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +425,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Month</t>
   </si>
@@ -40,10 +40,16 @@
     <t>30k</t>
   </si>
   <si>
-    <t>apr</t>
-  </si>
-  <si>
     <t>40K</t>
+  </si>
+  <si>
+    <t>May-V1.3</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>aprV1.2</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:D10"/>
+  <dimension ref="C6:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +433,18 @@
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Month</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>aprV1.2</t>
+  </si>
+  <si>
+    <t>60k</t>
   </si>
 </sst>
 </file>
@@ -85,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:D11"/>
+  <dimension ref="C6:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +451,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>43056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -52,7 +52,10 @@
     <t>aprV1.2</t>
   </si>
   <si>
-    <t>60k</t>
+    <t>DecV1.5</t>
+  </si>
+  <si>
+    <t>60K</t>
   </si>
 </sst>
 </file>
@@ -88,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +400,7 @@
   <dimension ref="C6:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,11 +454,11 @@
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>43056</v>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
